--- a/data/financial_statements/soci/DISH.xlsx
+++ b/data/financial_statements/soci/DISH.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4095000000</v>
+        <v>4095451000</v>
       </c>
       <c r="C2">
-        <v>4210000000</v>
+        <v>4209963000</v>
       </c>
       <c r="D2">
-        <v>4331000000</v>
+        <v>4330620000</v>
       </c>
       <c r="E2">
-        <v>4447000000</v>
+        <v>4446658000</v>
       </c>
       <c r="F2">
-        <v>4450000000</v>
+        <v>4449635000</v>
       </c>
       <c r="G2">
         <v>4486960000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.0798</v>
+        <v>-0.0796</v>
       </c>
       <c r="C3">
         <v>-0.0617</v>
       </c>
       <c r="D3">
-        <v>-0.0371</v>
+        <v>-0.0372</v>
       </c>
       <c r="E3">
-        <v>-0.0242</v>
+        <v>-0.0243</v>
       </c>
       <c r="F3">
-        <v>-0.018</v>
+        <v>-0.0181</v>
       </c>
       <c r="G3">
         <v>0.4079</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3010000000</v>
+        <v>2835155000</v>
       </c>
       <c r="C4">
-        <v>2906000000</v>
+        <v>2737856000</v>
       </c>
       <c r="D4">
-        <v>3162000000</v>
+        <v>2985215000</v>
       </c>
       <c r="E4">
-        <v>3114000000</v>
+        <v>2943234000</v>
       </c>
       <c r="F4">
-        <v>3125000000</v>
+        <v>2947920000</v>
       </c>
       <c r="G4">
         <v>2885923000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1086000000</v>
+        <v>1260296000</v>
       </c>
       <c r="C5">
-        <v>1304000000</v>
+        <v>1472107000</v>
       </c>
       <c r="D5">
-        <v>1169000000</v>
+        <v>1345405000</v>
       </c>
       <c r="E5">
-        <v>1333000000</v>
+        <v>1503423000</v>
       </c>
       <c r="F5">
-        <v>1324000000</v>
+        <v>1501715000</v>
       </c>
       <c r="G5">
         <v>1601037000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>12000000</v>
@@ -1152,8 +1263,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>658531000</v>
@@ -1168,7 +1279,7 @@
         <v>618622100</v>
       </c>
       <c r="F7">
-        <v>600000000</v>
+        <v>606719000</v>
       </c>
       <c r="G7">
         <v>507909000</v>
@@ -1274,8 +1385,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>427028800</v>
@@ -1396,8 +1507,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>5000000</v>
@@ -1434,23 +1545,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>8000000</v>
+        <v>4848000</v>
       </c>
       <c r="C10">
-        <v>9000000</v>
+        <v>5618000</v>
       </c>
       <c r="D10">
-        <v>5000000</v>
+        <v>4601000</v>
       </c>
       <c r="E10">
-        <v>4000000</v>
+        <v>4273000</v>
       </c>
       <c r="F10">
-        <v>2000000</v>
+        <v>4203000</v>
       </c>
       <c r="G10">
         <v>3825000</v>
@@ -1556,23 +1667,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>59000000</v>
+        <v>60725000</v>
       </c>
       <c r="C11">
-        <v>15000000</v>
+        <v>17529000</v>
       </c>
       <c r="D11">
-        <v>42000000</v>
+        <v>42796000</v>
       </c>
       <c r="E11">
-        <v>5000000</v>
+        <v>1561000</v>
       </c>
       <c r="F11">
-        <v>31000000</v>
+        <v>29073000</v>
       </c>
       <c r="G11">
         <v>-7749000</v>
@@ -1678,23 +1789,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>488000000</v>
+        <v>487754000</v>
       </c>
       <c r="C12">
-        <v>710000000</v>
+        <v>710464000</v>
       </c>
       <c r="D12">
-        <v>593000000</v>
+        <v>593156000</v>
       </c>
       <c r="E12">
-        <v>716000000</v>
+        <v>715577000</v>
       </c>
       <c r="F12">
-        <v>747000000</v>
+        <v>746778000</v>
       </c>
       <c r="G12">
         <v>898989000</v>
@@ -1800,23 +1911,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>58000000</v>
+        <v>58169000</v>
       </c>
       <c r="C13">
-        <v>170000000</v>
+        <v>170457000</v>
       </c>
       <c r="D13">
-        <v>144000000</v>
+        <v>144310000</v>
       </c>
       <c r="E13">
-        <v>150000000</v>
+        <v>150165000</v>
       </c>
       <c r="F13">
-        <v>179000000</v>
+        <v>179258000</v>
       </c>
       <c r="G13">
         <v>217538000</v>
@@ -1922,8 +2033,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>429585000</v>
@@ -2044,8 +2155,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2094,8 +2205,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>17355000</v>
@@ -2216,23 +2327,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>412000000</v>
+        <v>412230000</v>
       </c>
       <c r="C17">
-        <v>523000000</v>
+        <v>522832000</v>
       </c>
       <c r="D17">
-        <v>433000000</v>
+        <v>432651000</v>
       </c>
       <c r="E17">
-        <v>552000000</v>
+        <v>552329100</v>
       </c>
       <c r="F17">
-        <v>557000000</v>
+        <v>557042000</v>
       </c>
       <c r="G17">
         <v>671047000</v>
@@ -2338,23 +2449,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="C18">
+        <v>0.99</v>
+      </c>
+      <c r="D18">
         <v>0.82</v>
       </c>
-      <c r="D18">
-        <v>0.68</v>
-      </c>
       <c r="E18">
-        <v>0.87</v>
+        <v>1.04</v>
       </c>
       <c r="F18">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="G18">
         <v>1.27</v>
@@ -2460,8 +2571,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.65</v>
@@ -2582,23 +2693,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>530000000</v>
+        <v>530436000</v>
       </c>
       <c r="C20">
-        <v>530000000</v>
+        <v>530091000</v>
       </c>
       <c r="D20">
-        <v>529000000</v>
+        <v>529067000</v>
       </c>
       <c r="E20">
-        <v>529000000</v>
+        <v>527844000</v>
       </c>
       <c r="F20">
-        <v>528000000</v>
+        <v>528229000</v>
       </c>
       <c r="G20">
         <v>527690000</v>
@@ -2704,23 +2815,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>637000000</v>
+        <v>637455000</v>
       </c>
       <c r="C21">
-        <v>637000000</v>
+        <v>637123000</v>
       </c>
       <c r="D21">
-        <v>636000000</v>
+        <v>636470000</v>
       </c>
       <c r="E21">
-        <v>635000000</v>
+        <v>636063000</v>
       </c>
       <c r="F21">
-        <v>636000000</v>
+        <v>636440000</v>
       </c>
       <c r="G21">
         <v>635976000</v>
@@ -2826,23 +2937,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2652</v>
+        <v>0.3077</v>
       </c>
       <c r="C22">
-        <v>0.3097</v>
+        <v>0.3497</v>
       </c>
       <c r="D22">
-        <v>0.2699</v>
+        <v>0.3107</v>
       </c>
       <c r="E22">
-        <v>0.2998</v>
+        <v>0.3381</v>
       </c>
       <c r="F22">
-        <v>0.2975</v>
+        <v>0.3375</v>
       </c>
       <c r="G22">
         <v>0.3568</v>
@@ -2948,8 +3059,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1043</v>
@@ -3070,23 +3181,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1192</v>
+        <v>0.1191</v>
       </c>
       <c r="C24">
-        <v>0.1686</v>
+        <v>0.1688</v>
       </c>
       <c r="D24">
-        <v>0.1369</v>
+        <v>0.137</v>
       </c>
       <c r="E24">
-        <v>0.161</v>
+        <v>0.1609</v>
       </c>
       <c r="F24">
-        <v>0.1679</v>
+        <v>0.1678</v>
       </c>
       <c r="G24">
         <v>0.2004</v>
@@ -3192,20 +3303,20 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.1006</v>
+        <v>0.1007</v>
       </c>
       <c r="C25">
         <v>0.1242</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>0.0999</v>
       </c>
       <c r="E25">
-        <v>0.1241</v>
+        <v>0.1242</v>
       </c>
       <c r="F25">
         <v>0.1252</v>
@@ -3314,23 +3425,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>602000000</v>
+        <v>601764800</v>
       </c>
       <c r="C26">
-        <v>861000000</v>
+        <v>861158100</v>
       </c>
       <c r="D26">
-        <v>727000000</v>
+        <v>726700900</v>
       </c>
       <c r="E26">
-        <v>1000000000</v>
+        <v>884801900</v>
       </c>
       <c r="F26">
-        <v>895000000</v>
+        <v>894995800</v>
       </c>
       <c r="G26">
         <v>1093128000</v>
@@ -3436,8 +3547,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>427028800</v>
@@ -3558,8 +3669,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>429585000</v>
@@ -3680,8 +3791,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AK29">
         <v>-7097000</v>
@@ -3697,23 +3808,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>430000000</v>
+        <v>429585000</v>
       </c>
       <c r="C30">
-        <v>540000000</v>
+        <v>540007000</v>
       </c>
       <c r="D30">
-        <v>449000000</v>
+        <v>448846000</v>
       </c>
       <c r="E30">
-        <v>565000000</v>
+        <v>565412100</v>
       </c>
       <c r="F30">
-        <v>568000000</v>
+        <v>567520000</v>
       </c>
       <c r="G30">
         <v>681451000</v>
@@ -3819,8 +3930,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.8099</v>
@@ -3941,8 +4052,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.6739000000000001</v>
@@ -4063,8 +4174,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AK33">
         <v>-0.0092</v>
@@ -4080,8 +4191,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AK34">
         <v>-0.0164</v>
@@ -4097,8 +4208,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.8099</v>
@@ -4219,8 +4330,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.6739000000000001</v>
@@ -4341,8 +4452,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>637455000</v>
@@ -4463,20 +4574,20 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.147</v>
+        <v>0.1469</v>
       </c>
       <c r="C38">
-        <v>0.2045</v>
+        <v>0.2046</v>
       </c>
       <c r="D38">
-        <v>0.1679</v>
+        <v>0.1678</v>
       </c>
       <c r="E38">
-        <v>0.2249</v>
+        <v>0.199</v>
       </c>
       <c r="F38">
         <v>0.2011</v>
@@ -4585,23 +4696,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.1649</v>
+        <v>0.1043</v>
       </c>
       <c r="C39">
-        <v>0.1807</v>
+        <v>0.1235</v>
       </c>
       <c r="D39">
-        <v>0.1629</v>
+        <v>0.1012</v>
       </c>
       <c r="E39">
-        <v>0.1735</v>
+        <v>0.1509</v>
       </c>
       <c r="F39">
-        <v>0.2265</v>
+        <v>0.164</v>
       </c>
       <c r="G39">
         <v>0.251</v>
